--- a/Customer/Cust 2025/Cargo UIE 2025.xlsx
+++ b/Customer/Cust 2025/Cargo UIE 2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo CUST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Customer\Cust 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72147985-6617-46CA-804B-CC91D3D084EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD56099-6943-4D35-AE41-CE92C9E59DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E000C531-AA46-4CF4-8BD7-2185A135A010}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
   <si>
     <t>Hijau barang terkirim, Lunas, beres</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>66</t>
+  </si>
+  <si>
+    <t>F1252</t>
+  </si>
+  <si>
+    <t>F1270</t>
   </si>
 </sst>
 </file>
@@ -528,89 +534,89 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -932,7 +938,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B6"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1012,11 +1018,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -1028,10 +1034,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -1048,638 +1054,666 @@
       <c r="P3" s="25"/>
     </row>
     <row r="5" spans="1:16" ht="21">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="47">
         <v>45666</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="31">
+      <c r="H5" s="29"/>
+      <c r="I5" s="43">
         <v>13</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="30">
         <v>5.6160000000000002E-2</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5" s="29">
         <v>40</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="29">
         <v>39</v>
       </c>
-      <c r="M5" s="35">
+      <c r="M5" s="29">
         <v>36</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="50">
         <v>45670</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="50">
         <v>45712</v>
       </c>
-      <c r="P5" s="31" t="s">
+      <c r="P5" s="43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="21">
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="34" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="36">
+      <c r="G6" s="45"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="30">
         <v>2.3751000000000001E-2</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="29">
         <v>39</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="29">
         <v>21</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="29">
         <v>29</v>
       </c>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
     </row>
     <row r="7" spans="1:16" ht="22.5">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42" t="s">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="43">
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="32">
         <v>13</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="34">
         <v>7.991100000000001E-2</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:16" ht="42">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="37">
         <v>45667</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35">
+      <c r="H8" s="29"/>
+      <c r="I8" s="29">
         <v>88</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="30">
         <v>0.107184</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="29">
         <v>44</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="29">
         <v>29</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="29">
         <v>21</v>
       </c>
-      <c r="N8" s="50">
+      <c r="N8" s="39">
         <v>45670</v>
       </c>
-      <c r="O8" s="50">
+      <c r="O8" s="39">
         <v>45699</v>
       </c>
-      <c r="P8" s="35" t="s">
+      <c r="P8" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="22.5">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42" t="s">
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44">
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33">
         <v>88</v>
       </c>
-      <c r="J9" s="45">
+      <c r="J9" s="34">
         <v>0.107184</v>
       </c>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="46" t="s">
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
     </row>
     <row r="10" spans="1:16" ht="37.5">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="37">
         <v>45667</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="29">
         <v>1000</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="29">
         <v>52</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="30">
         <v>0.12474</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="29">
         <v>45</v>
       </c>
-      <c r="L10" s="35">
+      <c r="L10" s="29">
         <v>33</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="29">
         <v>21</v>
       </c>
-      <c r="N10" s="50">
+      <c r="N10" s="39">
         <v>45670</v>
       </c>
-      <c r="O10" s="50">
+      <c r="O10" s="39">
         <v>45699</v>
       </c>
-      <c r="P10" s="35" t="s">
+      <c r="P10" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="22.5">
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42" t="s">
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44">
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33">
         <v>52</v>
       </c>
-      <c r="J11" s="45">
+      <c r="J11" s="34">
         <v>0.12474</v>
       </c>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
     </row>
     <row r="12" spans="1:16" ht="42">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="37">
         <v>45668</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35">
+      <c r="H12" s="29"/>
+      <c r="I12" s="29">
         <v>162</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="30">
         <v>0.26928000000000002</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="29">
         <v>51</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12" s="29">
         <v>22</v>
       </c>
-      <c r="M12" s="35">
+      <c r="M12" s="29">
         <v>20</v>
       </c>
-      <c r="N12" s="50">
+      <c r="N12" s="39">
         <v>45671</v>
       </c>
-      <c r="O12" s="50">
+      <c r="O12" s="39">
         <v>45714</v>
       </c>
-      <c r="P12" s="35" t="s">
+      <c r="P12" s="29" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="22.5">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="52">
+      <c r="G13" s="40"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="41">
         <v>162</v>
       </c>
-      <c r="J13" s="45">
+      <c r="J13" s="34">
         <v>0.26928000000000002</v>
       </c>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
     </row>
     <row r="14" spans="1:16" ht="21">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="37">
         <v>45668</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35">
+      <c r="H14" s="29"/>
+      <c r="I14" s="29">
         <v>19</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="30">
         <v>2.8559999999999999E-2</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="29">
         <v>35</v>
       </c>
-      <c r="L14" s="35">
+      <c r="L14" s="29">
         <v>24</v>
       </c>
-      <c r="M14" s="35">
+      <c r="M14" s="29">
         <v>34</v>
       </c>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
+      <c r="N14" s="39">
+        <v>45672</v>
+      </c>
+      <c r="O14" s="39">
+        <v>45700</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="22.5">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44">
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33">
         <v>19</v>
       </c>
-      <c r="J15" s="45">
+      <c r="J15" s="34">
         <v>2.8559999999999999E-2</v>
       </c>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
     </row>
     <row r="16" spans="1:16" ht="21">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="47">
         <v>45675</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="29">
         <f>247*2</f>
         <v>494</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="43">
         <v>1907</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="30">
         <f>K16*L16*M16/1000000*2</f>
         <v>5.5795999999999998E-2</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="29">
         <v>37</v>
       </c>
-      <c r="L16" s="35">
+      <c r="L16" s="29">
         <v>29</v>
       </c>
-      <c r="M16" s="35">
+      <c r="M16" s="29">
         <v>26</v>
       </c>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
+      <c r="N16" s="50">
+        <v>45680</v>
+      </c>
+      <c r="O16" s="50">
+        <v>45712</v>
+      </c>
+      <c r="P16" s="43" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="17" spans="2:16" ht="21">
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="34" t="s">
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="53"/>
-      <c r="H17" s="35">
+      <c r="G17" s="44"/>
+      <c r="H17" s="29">
         <f>247*5</f>
         <v>1235</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="36">
+      <c r="I17" s="44"/>
+      <c r="J17" s="30">
         <f>K17*L17*M17/1000000*5</f>
         <v>0.30887999999999999</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17" s="29">
         <v>39</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="29">
         <v>44</v>
       </c>
-      <c r="M17" s="35">
+      <c r="M17" s="29">
         <v>36</v>
       </c>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
     </row>
     <row r="18" spans="2:16" ht="21">
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="34" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="53"/>
-      <c r="H18" s="35">
+      <c r="G18" s="44"/>
+      <c r="H18" s="29">
         <f>248*4</f>
         <v>992</v>
       </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="36">
+      <c r="I18" s="44"/>
+      <c r="J18" s="30">
         <f>K18*L18*M18/1000000*4</f>
         <v>6.0720000000000003E-2</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="29">
         <v>33</v>
       </c>
-      <c r="L18" s="35">
+      <c r="L18" s="29">
         <v>23</v>
       </c>
-      <c r="M18" s="35">
+      <c r="M18" s="29">
         <v>20</v>
       </c>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
     </row>
     <row r="19" spans="2:16" ht="21">
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="34" t="s">
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="53"/>
-      <c r="H19" s="35">
+      <c r="G19" s="44"/>
+      <c r="H19" s="29">
         <f>247*25</f>
         <v>6175</v>
       </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="36">
+      <c r="I19" s="44"/>
+      <c r="J19" s="30">
         <f>K19*L19*M19/1000000*25</f>
         <v>0.39899999999999997</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="29">
         <v>35</v>
       </c>
-      <c r="L19" s="35">
+      <c r="L19" s="29">
         <v>24</v>
       </c>
-      <c r="M19" s="35">
+      <c r="M19" s="29">
         <v>19</v>
       </c>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
     </row>
     <row r="20" spans="2:16" ht="21">
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="34" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="35">
+      <c r="G20" s="44"/>
+      <c r="H20" s="29">
         <f>247*10</f>
         <v>2470</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="36">
+      <c r="I20" s="44"/>
+      <c r="J20" s="30">
         <f>K20*L20*M20/1000000*10</f>
         <v>0.60060000000000002</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="29">
         <v>44</v>
       </c>
-      <c r="L20" s="35">
+      <c r="L20" s="29">
         <v>39</v>
       </c>
-      <c r="M20" s="35">
+      <c r="M20" s="29">
         <v>35</v>
       </c>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
     </row>
     <row r="21" spans="2:16" ht="21">
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="34" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="35">
+      <c r="G21" s="44"/>
+      <c r="H21" s="29">
         <f>248*5</f>
         <v>1240</v>
       </c>
-      <c r="I21" s="53"/>
-      <c r="J21" s="36">
+      <c r="I21" s="44"/>
+      <c r="J21" s="30">
         <f>K21*L21*M21/1000000*5</f>
         <v>0.16355999999999998</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="29">
         <v>47</v>
       </c>
-      <c r="L21" s="35">
+      <c r="L21" s="29">
         <v>29</v>
       </c>
-      <c r="M21" s="35">
+      <c r="M21" s="29">
         <v>24</v>
       </c>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
     </row>
     <row r="22" spans="2:16" ht="21">
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="34" t="s">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="35">
+      <c r="G22" s="45"/>
+      <c r="H22" s="29">
         <f>248*15</f>
         <v>3720</v>
       </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="36">
+      <c r="I22" s="45"/>
+      <c r="J22" s="30">
         <f>K22*L22*M22/1000000*15</f>
         <v>0.76690499999999995</v>
       </c>
-      <c r="K22" s="35">
+      <c r="K22" s="29">
         <v>43</v>
       </c>
-      <c r="L22" s="35">
+      <c r="L22" s="29">
         <v>41</v>
       </c>
-      <c r="M22" s="35">
+      <c r="M22" s="29">
         <v>29</v>
       </c>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
     </row>
     <row r="23" spans="2:16" ht="22.5">
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42" t="s">
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="55"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44">
+      <c r="G23" s="42"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33">
         <f>SUM(I16:I22)</f>
         <v>1907</v>
       </c>
-      <c r="J23" s="45">
+      <c r="J23" s="34">
         <f>SUM(J16:J22)</f>
         <v>2.355461</v>
       </c>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="26">
+    <mergeCell ref="N16:N22"/>
+    <mergeCell ref="O16:O22"/>
+    <mergeCell ref="P16:P22"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="G16:G22"/>
     <mergeCell ref="I16:I22"/>
     <mergeCell ref="B23:E23"/>
@@ -1690,19 +1724,6 @@
     <mergeCell ref="C16:C22"/>
     <mergeCell ref="D16:D22"/>
     <mergeCell ref="E16:E22"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="I5:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1794,11 +1815,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -1810,10 +1831,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>

--- a/Customer/Cust 2025/Cargo UIE 2025.xlsx
+++ b/Customer/Cust 2025/Cargo UIE 2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Customer\Cust 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD56099-6943-4D35-AE41-CE92C9E59DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3231931C-A50F-420B-BA5F-582EBE3C774A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E000C531-AA46-4CF4-8BD7-2185A135A010}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
   <si>
     <t>Hijau barang terkirim, Lunas, beres</t>
   </si>
@@ -247,6 +247,21 @@
   <si>
     <t>F1270</t>
   </si>
+  <si>
+    <t>S0086054</t>
+  </si>
+  <si>
+    <t>279/UIE/WW/SEA</t>
+  </si>
+  <si>
+    <t>1-25</t>
+  </si>
+  <si>
+    <t>胡须套Beard net</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
 </sst>
 </file>
 
@@ -260,7 +275,7 @@
     <numFmt numFmtId="168" formatCode="0.000_ "/>
     <numFmt numFmtId="169" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +343,19 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Comic Sans MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Comic Sans MS"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -451,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -579,28 +607,16 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -615,8 +631,47 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -934,11 +989,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03568550-BD00-482C-9F46-E2F5DB6F38F1}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16:B22"/>
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1018,11 +1073,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -1034,10 +1089,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -1054,26 +1109,26 @@
       <c r="P3" s="25"/>
     </row>
     <row r="5" spans="1:16" ht="21">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="51">
         <v>45666</v>
       </c>
       <c r="F5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="49" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="43">
+      <c r="I5" s="46">
         <v>13</v>
       </c>
       <c r="J5" s="30">
@@ -1088,21 +1143,21 @@
       <c r="M5" s="29">
         <v>36</v>
       </c>
-      <c r="N5" s="50">
+      <c r="N5" s="43">
         <v>45670</v>
       </c>
-      <c r="O5" s="50">
+      <c r="O5" s="43">
         <v>45712</v>
       </c>
-      <c r="P5" s="43" t="s">
+      <c r="P5" s="46" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="21">
       <c r="B6" s="45"/>
-      <c r="C6" s="54"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="45"/>
-      <c r="E6" s="49"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="28" t="s">
         <v>27</v>
       </c>
@@ -1126,12 +1181,12 @@
       <c r="P6" s="45"/>
     </row>
     <row r="7" spans="1:16" ht="22.5">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="31" t="s">
         <v>27</v>
       </c>
@@ -1196,12 +1251,12 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="22.5">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="31" t="s">
         <v>34</v>
       </c>
@@ -1270,12 +1325,12 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="22.5">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="31" t="s">
         <v>34</v>
       </c>
@@ -1340,12 +1395,12 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="22.5">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="31" t="s">
         <v>43</v>
       </c>
@@ -1410,12 +1465,12 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="22.5">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
       <c r="F15" s="31" t="s">
         <v>24</v>
       </c>
@@ -1435,29 +1490,29 @@
       <c r="P15" s="35"/>
     </row>
     <row r="16" spans="1:16" ht="21">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="51">
         <v>45675</v>
       </c>
       <c r="F16" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="46" t="s">
         <v>50</v>
       </c>
       <c r="H16" s="29">
         <f>247*2</f>
         <v>494</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="46">
         <v>1907</v>
       </c>
       <c r="J16" s="30">
@@ -1473,13 +1528,13 @@
       <c r="M16" s="29">
         <v>26</v>
       </c>
-      <c r="N16" s="50">
+      <c r="N16" s="43">
         <v>45680</v>
       </c>
-      <c r="O16" s="50">
+      <c r="O16" s="43">
         <v>45712</v>
       </c>
-      <c r="P16" s="43" t="s">
+      <c r="P16" s="46" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1487,7 +1542,7 @@
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
       <c r="D17" s="44"/>
-      <c r="E17" s="48"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="28" t="s">
         <v>51</v>
       </c>
@@ -1518,7 +1573,7 @@
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
       <c r="D18" s="44"/>
-      <c r="E18" s="48"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="28" t="s">
         <v>52</v>
       </c>
@@ -1549,7 +1604,7 @@
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
       <c r="D19" s="44"/>
-      <c r="E19" s="48"/>
+      <c r="E19" s="54"/>
       <c r="F19" s="28" t="s">
         <v>53</v>
       </c>
@@ -1580,7 +1635,7 @@
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
       <c r="D20" s="44"/>
-      <c r="E20" s="48"/>
+      <c r="E20" s="54"/>
       <c r="F20" s="28" t="s">
         <v>54</v>
       </c>
@@ -1611,7 +1666,7 @@
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
       <c r="D21" s="44"/>
-      <c r="E21" s="48"/>
+      <c r="E21" s="54"/>
       <c r="F21" s="28" t="s">
         <v>55</v>
       </c>
@@ -1642,7 +1697,7 @@
       <c r="B22" s="45"/>
       <c r="C22" s="45"/>
       <c r="D22" s="45"/>
-      <c r="E22" s="49"/>
+      <c r="E22" s="52"/>
       <c r="F22" s="28" t="s">
         <v>56</v>
       </c>
@@ -1670,12 +1725,12 @@
       <c r="P22" s="45"/>
     </row>
     <row r="23" spans="2:16" ht="22.5">
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
       <c r="F23" s="31" t="s">
         <v>57</v>
       </c>
@@ -1696,8 +1751,85 @@
       <c r="O23" s="35"/>
       <c r="P23" s="35"/>
     </row>
+    <row r="24" spans="2:16" ht="21">
+      <c r="B24" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="56">
+        <v>15027272944</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="57">
+        <v>45722</v>
+      </c>
+      <c r="F24" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="56">
+        <v>50000</v>
+      </c>
+      <c r="I24" s="56">
+        <v>58</v>
+      </c>
+      <c r="J24" s="59">
+        <v>0.73260000000000003</v>
+      </c>
+      <c r="K24" s="56">
+        <v>37</v>
+      </c>
+      <c r="L24" s="56">
+        <v>33</v>
+      </c>
+      <c r="M24" s="56">
+        <v>24</v>
+      </c>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+    </row>
+    <row r="25" spans="2:16" ht="22.5">
+      <c r="B25" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="61"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="61">
+        <v>58</v>
+      </c>
+      <c r="J25" s="63">
+        <v>0.73260000000000003</v>
+      </c>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="G16:G22"/>
+    <mergeCell ref="I16:I22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="E16:E22"/>
     <mergeCell ref="N16:N22"/>
     <mergeCell ref="O16:O22"/>
     <mergeCell ref="P16:P22"/>
@@ -1714,16 +1846,6 @@
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G16:G22"/>
-    <mergeCell ref="I16:I22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="D16:D22"/>
-    <mergeCell ref="E16:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1815,11 +1937,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
